--- a/output/out_excel/data_R2.xlsx
+++ b/output/out_excel/data_R2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,202 +462,342 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.08524328499782209</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0.02366307374882136</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>-0.005905217267405838</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>-0.007379606916266601</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>-0.01450798517954852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.08056490431954524</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0.01105313565664525</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>0.02838985113910809</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>0.1020708091242757</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>-0.005956578834227753</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.06516236265093285</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0.04966072939302634</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0.03845925926318092</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>0.05550430486304769</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>0.02910624196363781</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.4375291368973719</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0.2607818095393487</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>0.2855444546228493</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>0.2456793738330264</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>0.3348028670118502</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.6750213846495648</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0.5448849621498821</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>0.62813696364187</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>0.5761355027688091</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>0.6271331057090431</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.8754619099937465</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0.757206372761136</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>0.8152709888679728</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>0.7892832298945276</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0.8330204913796411</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.9304891117392474</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0.8641777389109138</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>0.906508657828304</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>0.9183074904705827</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>0.9311234265632238</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.8617261310085728</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0.8789971939612213</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>0.9286803342762527</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>0.9630438935134307</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>0.95915043532026</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0.299546258176435</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0.823283882638209</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>0.905437934175174</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>0.9687067839153821</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>0.9580043796099599</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2701211506968104</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7919742568428777</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8867753453621453</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.969047603534034</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9578682623360548</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+      <c r="B12" t="n">
+        <v>-0.1148246266428194</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7739434643663466</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8948109663717944</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9706382415287214</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9520386170722075</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.1975452737441644</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7615591849498483</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8903589950700311</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9659973492034583</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9467208043091199</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.2227925447150548</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7580530297260952</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8800688613655225</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9643999265818093</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9437055898470286</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.257756603139263</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7533063467942747</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.878728810227678</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9643048258424991</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9412959636097267</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.2671956475355592</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7516985708675239</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8770487271888723</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.964347723419166</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9397726114971598</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.2649135913119302</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7513796894586076</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8760978471439249</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9635029670313922</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9397679017653969</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.2715788746411702</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7509520641599765</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8754714900674994</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9639017076829847</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.939015655915338</v>
       </c>
     </row>
   </sheetData>

--- a/output/out_excel/data_R2.xlsx
+++ b/output/out_excel/data_R2.xlsx
@@ -465,19 +465,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08524328499782209</v>
+        <v>-0.3958491905232238</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02366307374882136</v>
+        <v>-0.217077417213067</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.005905217267405838</v>
+        <v>-0.1238165243142643</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.007379606916266601</v>
+        <v>-0.1816402082444849</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01450798517954852</v>
+        <v>-0.2642793407602055</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +485,19 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08056490431954524</v>
+        <v>-0.4192009349369115</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01105313565664525</v>
+        <v>-0.1408789301740885</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02838985113910809</v>
+        <v>-0.1881079471304872</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1020708091242757</v>
+        <v>-0.1630305981621641</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.005956578834227753</v>
+        <v>-0.1242004484768635</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06516236265093285</v>
+        <v>-0.3135933680333336</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04966072939302634</v>
+        <v>0.04060011021925858</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03845925926318092</v>
+        <v>-0.2163507239332428</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05550430486304769</v>
+        <v>-0.1893454486309444</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02910624196363781</v>
+        <v>-0.2261318395809019</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4375291368973719</v>
+        <v>-0.3826290663350012</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2607818095393487</v>
+        <v>-0.06207212619755938</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2855444546228493</v>
+        <v>0.08658345043665462</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2456793738330264</v>
+        <v>0.07752282994852688</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3348028670118502</v>
+        <v>-0.05389568435900263</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6750213846495648</v>
+        <v>0.2351412773284965</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5448849621498821</v>
+        <v>0.3590238833875963</v>
       </c>
       <c r="D6" t="n">
-        <v>0.62813696364187</v>
+        <v>0.503602567265456</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5761355027688091</v>
+        <v>0.4957899563994934</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6271331057090431</v>
+        <v>0.3935409140535722</v>
       </c>
     </row>
     <row r="7">
@@ -565,19 +565,19 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8754619099937465</v>
+        <v>0.7417208429448655</v>
       </c>
       <c r="C7" t="n">
-        <v>0.757206372761136</v>
+        <v>0.6156611746805127</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8152709888679728</v>
+        <v>0.6905839940768871</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7892832298945276</v>
+        <v>0.7408999318973241</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8330204913796411</v>
+        <v>0.678643304015597</v>
       </c>
     </row>
     <row r="8">
@@ -585,19 +585,19 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9304891117392474</v>
+        <v>0.7716880594885259</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8641777389109138</v>
+        <v>0.7950274829098634</v>
       </c>
       <c r="D8" t="n">
-        <v>0.906508657828304</v>
+        <v>0.8945595077526429</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9183074904705827</v>
+        <v>0.9059220928320305</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9311234265632238</v>
+        <v>0.868860756151158</v>
       </c>
     </row>
     <row r="9">
@@ -605,19 +605,19 @@
         <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8617261310085728</v>
+        <v>0.4069406154810908</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8789971939612213</v>
+        <v>0.905248353283901</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9286803342762527</v>
+        <v>0.9478274393755987</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9630438935134307</v>
+        <v>0.9478568359861684</v>
       </c>
       <c r="F9" t="n">
-        <v>0.95915043532026</v>
+        <v>0.9367287409437305</v>
       </c>
     </row>
     <row r="10">
@@ -625,19 +625,19 @@
         <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>0.299546258176435</v>
+        <v>0.164515789745884</v>
       </c>
       <c r="C10" t="n">
-        <v>0.823283882638209</v>
+        <v>0.8940103510172752</v>
       </c>
       <c r="D10" t="n">
-        <v>0.905437934175174</v>
+        <v>0.9510893576696431</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9687067839153821</v>
+        <v>0.9787076460854713</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9580043796099599</v>
+        <v>0.9197670439975129</v>
       </c>
     </row>
     <row r="11">
@@ -645,19 +645,19 @@
         <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2701211506968104</v>
+        <v>-0.7347720508943657</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7919742568428777</v>
+        <v>0.9057016784967475</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8867753453621453</v>
+        <v>0.9320293786486881</v>
       </c>
       <c r="E11" t="n">
-        <v>0.969047603534034</v>
+        <v>0.9828453145286167</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9578682623360548</v>
+        <v>0.9385038817817638</v>
       </c>
     </row>
     <row r="12">
@@ -665,19 +665,19 @@
         <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1148246266428194</v>
+        <v>-0.3731218707134606</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7739434643663466</v>
+        <v>0.9084551194846087</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8948109663717944</v>
+        <v>0.9159072103908452</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9706382415287214</v>
+        <v>0.9802507678640193</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9520386170722075</v>
+        <v>0.926339891160929</v>
       </c>
     </row>
     <row r="13">
@@ -685,19 +685,19 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1975452737441644</v>
+        <v>-0.9781544117523665</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7615591849498483</v>
+        <v>0.9013557183762829</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8903589950700311</v>
+        <v>0.9125994646741284</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9659973492034583</v>
+        <v>0.9754841628635438</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9467208043091199</v>
+        <v>0.9195336466068662</v>
       </c>
     </row>
     <row r="14">
@@ -705,19 +705,19 @@
         <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.2227925447150548</v>
+        <v>-0.397251238288308</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7580530297260952</v>
+        <v>0.8987929643141123</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8800688613655225</v>
+        <v>0.9031177666895103</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9643999265818093</v>
+        <v>0.9716894805886346</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9437055898470286</v>
+        <v>0.9198067776564369</v>
       </c>
     </row>
     <row r="15">
@@ -725,19 +725,19 @@
         <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.257756603139263</v>
+        <v>-0.6851881314607619</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7533063467942747</v>
+        <v>0.8990545713409716</v>
       </c>
       <c r="D15" t="n">
-        <v>0.878728810227678</v>
+        <v>0.8909705175115198</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9643048258424991</v>
+        <v>0.9733799889463609</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9412959636097267</v>
+        <v>0.9201425940218921</v>
       </c>
     </row>
     <row r="16">
@@ -745,19 +745,19 @@
         <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.2671956475355592</v>
+        <v>-0.6205841510403871</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7516985708675239</v>
+        <v>0.8994443144173788</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8770487271888723</v>
+        <v>0.8896356493090366</v>
       </c>
       <c r="E16" t="n">
-        <v>0.964347723419166</v>
+        <v>0.9703889827001141</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9397726114971598</v>
+        <v>0.9181423624008327</v>
       </c>
     </row>
     <row r="17">
@@ -765,19 +765,19 @@
         <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2649135913119302</v>
+        <v>-0.6328807602497957</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7513796894586076</v>
+        <v>0.8992193777262774</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8760978471439249</v>
+        <v>0.8876870587055249</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9635029670313922</v>
+        <v>0.9713201194571178</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9397679017653969</v>
+        <v>0.9177303076199722</v>
       </c>
     </row>
     <row r="18">
@@ -785,19 +785,19 @@
         <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2715788746411702</v>
+        <v>-0.6309414445385246</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7509520641599765</v>
+        <v>0.8990786983204466</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8754714900674994</v>
+        <v>0.8875867723379331</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9639017076829847</v>
+        <v>0.9711894535502141</v>
       </c>
       <c r="F18" t="n">
-        <v>0.939015655915338</v>
+        <v>0.9178531237548895</v>
       </c>
     </row>
   </sheetData>
